--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,223 +390,223 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -734,9 +734,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -747,7 +755,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -767,287 +775,287 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -1055,7 +1063,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1063,7 +1071,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1071,7 +1079,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1079,7 +1087,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1087,7 +1095,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1095,7 +1103,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -1103,7 +1111,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -1111,9 +1119,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -1124,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,295 +1160,295 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1440,7 +1456,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1448,7 +1464,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1456,7 +1472,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1464,7 +1480,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1472,7 +1488,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -1480,7 +1496,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -1488,9 +1504,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -1501,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1521,183 +1545,183 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>98</v>
@@ -1705,39 +1729,39 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>109</v>
@@ -1745,71 +1769,71 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -1817,7 +1841,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -1825,7 +1849,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -1833,7 +1857,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -1841,7 +1865,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -1849,7 +1873,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -1857,7 +1881,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -1865,9 +1889,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -1878,7 +1910,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1898,143 +1930,143 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>86</v>
@@ -2042,7 +2074,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>88</v>
@@ -2050,7 +2082,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>90</v>
@@ -2058,7 +2090,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>92</v>
@@ -2066,71 +2098,71 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>111</v>
@@ -2138,15 +2170,15 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>116</v>
@@ -2154,7 +2186,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>119</v>
@@ -2162,39 +2194,39 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2202,7 +2234,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2210,7 +2242,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2218,7 +2250,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2226,7 +2258,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2234,7 +2266,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2242,9 +2274,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -2255,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2275,111 +2315,111 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>77</v>
@@ -2387,7 +2427,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>79</v>
@@ -2395,159 +2435,159 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>122</v>
@@ -2555,23 +2595,23 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -2579,7 +2619,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2587,7 +2627,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2595,7 +2635,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2603,7 +2643,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2611,7 +2651,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2619,9 +2659,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -2632,7 +2680,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2652,95 +2700,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>72</v>
@@ -2748,7 +2796,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>74</v>
@@ -2756,15 +2804,15 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>77</v>
@@ -2772,167 +2820,167 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>123</v>
@@ -2940,23 +2988,23 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -2964,7 +3012,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -2972,7 +3020,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -2980,7 +3028,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -2988,7 +3036,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -2996,9 +3044,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -3009,7 +3065,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3029,79 +3085,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>67</v>
@@ -3109,7 +3165,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>69</v>
@@ -3117,15 +3173,15 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>72</v>
@@ -3133,207 +3189,207 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -3341,7 +3397,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3349,7 +3405,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3357,7 +3413,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3365,7 +3421,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3373,9 +3429,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -3386,7 +3450,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3406,63 +3470,63 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -3470,15 +3534,15 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -3486,215 +3550,215 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>124</v>
@@ -3702,23 +3766,23 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -3726,7 +3790,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -3734,7 +3798,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3742,7 +3806,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -3750,9 +3814,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -3763,7 +3835,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3783,55 +3855,55 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>58</v>
@@ -3839,15 +3911,15 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>61</v>
@@ -3855,223 +3927,223 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>122</v>
@@ -4079,23 +4151,23 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4103,7 +4175,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4111,7 +4183,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4119,7 +4191,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4127,9 +4199,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -4140,7 +4220,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4160,47 +4240,47 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>54</v>
@@ -4208,7 +4288,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>55</v>
@@ -4216,239 +4296,239 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>120</v>
@@ -4456,15 +4536,15 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>127</v>
@@ -4472,7 +4552,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4480,7 +4560,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4488,7 +4568,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4496,7 +4576,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4504,9 +4584,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -4517,7 +4605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4537,231 +4625,231 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>130</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -4769,7 +4857,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -4777,7 +4865,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -4785,7 +4873,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -4793,7 +4881,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -4801,7 +4889,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -4809,7 +4897,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -4817,7 +4905,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -4825,7 +4913,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -4833,7 +4921,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -4841,7 +4929,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -4849,7 +4937,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -4857,7 +4945,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -4865,7 +4953,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4873,7 +4961,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -4881,9 +4969,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -4894,7 +4990,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4914,39 +5010,39 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>49</v>
@@ -4954,7 +5050,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -4962,306 +5058,314 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>127</v>
+      <c r="B46">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5375,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5291,239 +5395,239 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -5531,7 +5635,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5539,7 +5643,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5547,7 +5651,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5555,7 +5659,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5563,7 +5667,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5571,7 +5675,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5579,7 +5683,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5587,7 +5691,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5595,7 +5699,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5603,7 +5707,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -5611,7 +5715,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -5619,7 +5723,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -5627,7 +5731,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -5635,9 +5739,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -5648,7 +5760,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5668,247 +5780,247 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>130</v>
@@ -5916,7 +6028,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -5924,7 +6036,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -5932,7 +6044,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -5940,7 +6052,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -5948,7 +6060,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -5956,7 +6068,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -5964,7 +6076,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -5972,7 +6084,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -5980,7 +6092,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -5988,7 +6100,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -5996,7 +6108,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -6004,7 +6116,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -6012,9 +6124,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -6025,7 +6145,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6045,255 +6165,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6301,7 +6421,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6309,7 +6429,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6317,7 +6437,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6325,7 +6445,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6333,7 +6453,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6341,7 +6461,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6349,7 +6469,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6357,7 +6477,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -6365,7 +6485,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -6373,7 +6493,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -6381,7 +6501,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -6389,9 +6509,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -6402,7 +6530,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6422,255 +6550,255 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -6678,7 +6806,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -6686,7 +6814,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -6694,7 +6822,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -6702,7 +6830,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -6710,7 +6838,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -6718,7 +6846,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -6726,7 +6854,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -6734,7 +6862,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -6742,7 +6870,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -6750,7 +6878,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -6758,7 +6886,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -6766,9 +6894,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -6779,7 +6915,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6799,263 +6935,263 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>130</v>
@@ -7063,7 +7199,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7071,7 +7207,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7079,7 +7215,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7087,7 +7223,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7095,7 +7231,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7103,7 +7239,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7111,7 +7247,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -7119,7 +7255,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -7127,7 +7263,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -7135,7 +7271,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -7143,9 +7279,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -7156,7 +7300,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7176,271 +7320,271 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -7448,7 +7592,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7456,7 +7600,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7464,7 +7608,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7472,7 +7616,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7480,7 +7624,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7488,7 +7632,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -7496,7 +7640,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -7504,7 +7648,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -7512,7 +7656,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -7520,9 +7664,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -7533,7 +7685,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7553,279 +7705,279 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -7833,7 +7985,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>130</v>
@@ -7841,7 +7993,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>130</v>
@@ -7849,7 +8001,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>130</v>
@@ -7857,7 +8009,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>130</v>
@@ -7865,7 +8017,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>130</v>
@@ -7873,7 +8025,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>130</v>
@@ -7881,7 +8033,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -7889,7 +8041,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>130</v>
@@ -7897,9 +8049,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -601,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -834,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -850,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -858,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -906,7 +906,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -914,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -930,7 +930,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -954,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -978,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -986,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -994,7 +994,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -1002,7 +1002,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1010,7 +1010,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -1018,7 +1018,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -1026,7 +1026,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -1034,7 +1034,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -1050,7 +1050,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1187,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1195,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1227,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1235,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -1251,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -1267,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -1275,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1299,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -1315,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -1323,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -1379,7 +1379,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -1411,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -1419,7 +1419,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -1427,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -1435,7 +1435,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -1443,7 +1443,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1580,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1596,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1612,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1620,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -1628,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -1636,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1644,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1652,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -1684,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -1692,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1700,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -1708,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -1716,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1724,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -1732,7 +1732,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -1740,7 +1740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -1748,7 +1748,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -1756,7 +1756,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -1764,7 +1764,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -1772,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1780,7 +1780,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -1788,7 +1788,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1796,7 +1796,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -1812,7 +1812,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -1828,7 +1828,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1965,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1973,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1981,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -1989,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1997,7 +1997,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -2005,7 +2005,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -2053,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -2069,7 +2069,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -2077,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -2085,7 +2085,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -2093,7 +2093,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -2101,7 +2101,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -2109,7 +2109,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -2117,7 +2117,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -2125,7 +2125,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -2133,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -2141,7 +2141,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -2149,7 +2149,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -2157,7 +2157,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -2165,7 +2165,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -2173,7 +2173,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -2181,7 +2181,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -2189,7 +2189,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -2197,7 +2197,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -2205,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -2213,7 +2213,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -2334,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -2350,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -2358,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -2374,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -2398,7 +2398,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -2414,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -2430,7 +2430,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -2438,7 +2438,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -2446,7 +2446,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -2454,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -2470,7 +2470,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -2478,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -2486,7 +2486,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -2494,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -2502,7 +2502,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -2510,7 +2510,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -2518,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -2526,7 +2526,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -2534,7 +2534,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -2542,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -2550,7 +2550,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -2558,7 +2558,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -2566,7 +2566,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -2574,7 +2574,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -2582,7 +2582,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -2590,7 +2590,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -2598,7 +2598,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -2606,7 +2606,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -2719,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -2735,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -2751,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -2767,7 +2767,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -2783,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2791,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -2807,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -2815,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2823,7 +2823,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -2831,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -2839,7 +2839,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -2847,7 +2847,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -2855,7 +2855,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -2871,7 +2871,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -2879,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -2887,7 +2887,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -2895,7 +2895,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -2903,7 +2903,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -2911,7 +2911,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -2919,7 +2919,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2935,7 +2935,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -2943,7 +2943,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -2951,7 +2951,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -2959,7 +2959,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -2967,7 +2967,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -2975,7 +2975,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -2983,7 +2983,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -2991,7 +2991,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -2999,7 +2999,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -3104,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -3128,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -3144,7 +3144,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -3160,7 +3160,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -3168,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -3176,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -3184,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -3192,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -3200,7 +3200,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -3208,7 +3208,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -3216,7 +3216,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -3224,7 +3224,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3232,7 +3232,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -3240,7 +3240,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -3248,7 +3248,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -3256,7 +3256,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -3264,7 +3264,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -3272,7 +3272,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -3280,7 +3280,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -3288,7 +3288,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -3296,7 +3296,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -3304,7 +3304,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -3312,7 +3312,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -3320,7 +3320,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -3328,7 +3328,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -3336,7 +3336,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -3344,7 +3344,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -3352,7 +3352,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -3368,7 +3368,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -3376,7 +3376,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -3384,7 +3384,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -3489,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -3497,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -3513,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -3529,7 +3529,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -3537,7 +3537,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -3545,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -3561,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -3569,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -3577,7 +3577,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -3585,7 +3585,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -3593,7 +3593,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -3601,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -3609,7 +3609,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -3617,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -3625,7 +3625,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -3633,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -3641,7 +3641,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -3649,7 +3649,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -3657,7 +3657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -3665,7 +3665,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -3673,7 +3673,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -3681,7 +3681,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -3689,7 +3689,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -3705,7 +3705,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -3713,7 +3713,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -3721,7 +3721,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -3729,7 +3729,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -3737,7 +3737,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -3745,7 +3745,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -3753,7 +3753,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -3761,7 +3761,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -3769,7 +3769,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -3882,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -3906,7 +3906,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -3914,7 +3914,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -3922,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -3930,7 +3930,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -3938,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -3946,7 +3946,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -3954,7 +3954,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -3962,7 +3962,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -3970,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -3978,7 +3978,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -3986,7 +3986,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -3994,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -4002,7 +4002,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -4010,7 +4010,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -4018,7 +4018,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -4026,7 +4026,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -4034,7 +4034,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -4042,7 +4042,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4050,7 +4050,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -4058,7 +4058,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -4066,7 +4066,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -4074,7 +4074,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -4082,7 +4082,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -4090,7 +4090,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -4098,7 +4098,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -4106,7 +4106,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -4114,7 +4114,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -4122,7 +4122,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -4130,7 +4130,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -4138,7 +4138,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -4146,7 +4146,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -4154,7 +4154,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -4267,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -4283,7 +4283,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -4291,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -4299,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -4307,7 +4307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -4315,7 +4315,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -4323,7 +4323,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -4331,7 +4331,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -4339,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -4347,7 +4347,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -4355,7 +4355,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -4363,7 +4363,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -4371,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -4379,7 +4379,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -4387,7 +4387,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -4395,7 +4395,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -4403,7 +4403,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -4411,7 +4411,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -4419,7 +4419,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -4427,7 +4427,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -4435,7 +4435,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -4443,7 +4443,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -4451,7 +4451,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -4459,7 +4459,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -4467,7 +4467,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -4475,7 +4475,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -4483,7 +4483,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -4491,7 +4491,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -4499,7 +4499,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
@@ -4507,7 +4507,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -4515,7 +4515,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
@@ -4523,7 +4523,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -4531,7 +4531,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -4539,7 +4539,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -4547,7 +4547,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -4555,7 +4555,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -4644,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -4652,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -4660,7 +4660,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -4668,7 +4668,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -4676,7 +4676,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -4684,7 +4684,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -4692,7 +4692,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -4700,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -4708,7 +4708,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -4716,7 +4716,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
@@ -4724,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -4732,7 +4732,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -4740,7 +4740,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
@@ -4748,7 +4748,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -4756,7 +4756,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
@@ -4764,7 +4764,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -4772,7 +4772,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -4780,7 +4780,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -4788,7 +4788,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -4796,7 +4796,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -4804,7 +4804,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -4812,7 +4812,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -4820,7 +4820,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -4828,7 +4828,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -4836,7 +4836,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -4844,7 +4844,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -5045,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -5061,7 +5061,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -5069,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -5077,7 +5077,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -5085,7 +5085,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -5093,7 +5093,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -5101,7 +5101,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -5109,7 +5109,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -5117,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -5125,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -5133,7 +5133,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -5141,7 +5141,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -5149,7 +5149,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -5157,7 +5157,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -5165,7 +5165,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -5173,7 +5173,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -5181,7 +5181,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -5189,7 +5189,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -5197,7 +5197,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -5205,7 +5205,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -5213,7 +5213,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -5221,7 +5221,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -5229,7 +5229,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -5237,7 +5237,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -5245,7 +5245,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -5253,7 +5253,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -5261,7 +5261,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
@@ -5269,7 +5269,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -5277,7 +5277,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -5285,7 +5285,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -5293,7 +5293,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -5301,7 +5301,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -5309,7 +5309,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -5317,7 +5317,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -5325,7 +5325,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -5333,7 +5333,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -5341,7 +5341,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -5349,7 +5349,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -5357,7 +5357,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -5365,7 +5365,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -5414,7 +5414,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -5422,7 +5422,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -5430,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -5438,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -5446,7 +5446,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -5454,7 +5454,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -5462,7 +5462,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -5470,7 +5470,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -5478,7 +5478,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -5486,7 +5486,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -5494,7 +5494,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -5502,7 +5502,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
@@ -5510,7 +5510,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -5526,7 +5526,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -5534,7 +5534,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -5542,7 +5542,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -5550,7 +5550,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -5558,7 +5558,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -5566,7 +5566,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -5574,7 +5574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -5582,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -5590,7 +5590,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -5598,7 +5598,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -5606,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -5614,7 +5614,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -5622,7 +5622,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -5799,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -5807,7 +5807,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -5815,7 +5815,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -5823,7 +5823,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -5831,7 +5831,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -5839,7 +5839,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -5847,7 +5847,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -5855,7 +5855,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
@@ -5863,7 +5863,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -5871,7 +5871,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -5879,7 +5879,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -5887,7 +5887,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -5895,7 +5895,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -5903,7 +5903,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
@@ -5911,7 +5911,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
@@ -5919,7 +5919,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -5927,7 +5927,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
@@ -5935,7 +5935,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -5943,7 +5943,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -5951,7 +5951,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -5959,7 +5959,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -5967,7 +5967,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -5975,7 +5975,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -5983,7 +5983,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -5991,7 +5991,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -5999,7 +5999,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -6007,7 +6007,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -6015,7 +6015,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -6184,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -6192,7 +6192,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -6200,7 +6200,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -6208,7 +6208,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -6216,7 +6216,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -6224,7 +6224,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -6232,7 +6232,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -6240,7 +6240,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -6248,7 +6248,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -6256,7 +6256,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -6264,7 +6264,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -6272,7 +6272,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
@@ -6280,7 +6280,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
@@ -6288,7 +6288,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18">
@@ -6296,7 +6296,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -6304,7 +6304,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
@@ -6312,7 +6312,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -6320,7 +6320,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -6328,7 +6328,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -6336,7 +6336,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
@@ -6344,7 +6344,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -6352,7 +6352,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -6360,7 +6360,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -6368,7 +6368,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -6376,7 +6376,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -6384,7 +6384,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -6392,7 +6392,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -6400,7 +6400,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -6408,7 +6408,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -6569,7 +6569,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -6577,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -6585,7 +6585,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -6593,7 +6593,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -6601,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -6609,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -6617,7 +6617,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -6625,7 +6625,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -6633,7 +6633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -6641,7 +6641,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -6649,7 +6649,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -6657,7 +6657,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
@@ -6665,7 +6665,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -6673,7 +6673,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -6681,7 +6681,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -6689,7 +6689,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
@@ -6697,7 +6697,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -6705,7 +6705,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
@@ -6713,7 +6713,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
@@ -6721,7 +6721,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
@@ -6729,7 +6729,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -6737,7 +6737,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
@@ -6745,7 +6745,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -6753,7 +6753,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -6761,7 +6761,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -6769,7 +6769,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -6777,7 +6777,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -6785,7 +6785,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -6793,7 +6793,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -6954,7 +6954,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -6962,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -6970,7 +6970,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -6978,7 +6978,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -6986,7 +6986,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -6994,7 +6994,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -7002,7 +7002,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -7010,7 +7010,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -7018,7 +7018,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -7026,7 +7026,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -7034,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -7042,7 +7042,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -7050,7 +7050,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -7058,7 +7058,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -7066,7 +7066,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -7074,7 +7074,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -7082,7 +7082,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -7090,7 +7090,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -7098,7 +7098,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -7106,7 +7106,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
@@ -7114,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
@@ -7122,7 +7122,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
@@ -7130,7 +7130,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -7138,7 +7138,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -7146,7 +7146,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -7154,7 +7154,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -7162,7 +7162,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -7170,7 +7170,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -7178,7 +7178,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -7186,7 +7186,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -7339,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -7347,7 +7347,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -7355,7 +7355,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -7363,7 +7363,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -7371,7 +7371,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -7379,7 +7379,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -7387,7 +7387,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -7395,7 +7395,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -7403,7 +7403,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -7411,7 +7411,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -7419,7 +7419,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -7427,7 +7427,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -7435,7 +7435,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -7443,7 +7443,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -7451,7 +7451,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -7459,7 +7459,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -7467,7 +7467,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -7475,7 +7475,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -7483,7 +7483,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -7491,7 +7491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -7499,7 +7499,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -7507,7 +7507,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -7515,7 +7515,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -7523,7 +7523,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -7531,7 +7531,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -7539,7 +7539,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -7547,7 +7547,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31">
@@ -7555,7 +7555,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -7563,7 +7563,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -7571,7 +7571,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -7579,7 +7579,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -7716,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -7724,7 +7724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -7732,7 +7732,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -7740,7 +7740,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -7748,7 +7748,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -7756,7 +7756,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -7764,7 +7764,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -7772,7 +7772,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -7780,7 +7780,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -7788,7 +7788,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -7796,7 +7796,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -7804,7 +7804,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -7812,7 +7812,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -7820,7 +7820,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -7828,7 +7828,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -7836,7 +7836,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -7844,7 +7844,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -7852,7 +7852,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -7860,7 +7860,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -7868,7 +7868,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -7876,7 +7876,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -7884,7 +7884,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -7892,7 +7892,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -7900,7 +7900,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -7908,7 +7908,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -7916,7 +7916,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -7924,7 +7924,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -7932,7 +7932,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -7940,7 +7940,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -7948,7 +7948,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -7956,7 +7956,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -7964,7 +7964,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -7972,7 +7972,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iws_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -834,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -850,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -858,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -906,7 +906,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -914,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -930,7 +930,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -954,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -978,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -986,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -994,7 +994,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1002,7 +1002,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -1010,7 +1010,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -1018,7 +1018,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -1026,7 +1026,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1034,7 +1034,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1187,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1195,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1227,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -1235,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -1251,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1267,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -1275,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -1299,7 +1299,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -1307,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -1315,7 +1315,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -1323,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -1331,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -1339,7 +1339,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1347,7 +1347,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -1355,7 +1355,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -1371,7 +1371,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -1379,7 +1379,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -1387,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -1395,7 +1395,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -1411,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -1419,7 +1419,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -1427,7 +1427,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1435,7 +1435,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1580,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1596,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -1612,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1620,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1628,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1636,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -1644,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -1652,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -1660,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1668,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1676,7 +1676,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -1684,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1692,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -1700,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -1708,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -1716,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -1724,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1732,7 +1732,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -1740,7 +1740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -1748,7 +1748,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1756,7 +1756,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -1764,7 +1764,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -1772,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -1780,7 +1780,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -1788,7 +1788,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -1796,7 +1796,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1804,7 +1804,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -1812,7 +1812,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1828,7 +1828,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1965,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1973,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1981,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1989,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1997,7 +1997,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -2005,7 +2005,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -2013,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2021,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -2029,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2037,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2045,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -2053,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -2069,7 +2069,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -2077,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -2085,7 +2085,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -2093,7 +2093,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -2101,7 +2101,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -2109,7 +2109,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -2117,7 +2117,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -2125,7 +2125,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -2133,7 +2133,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -2141,7 +2141,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -2149,7 +2149,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -2157,7 +2157,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -2165,7 +2165,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -2173,7 +2173,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -2181,7 +2181,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -2189,7 +2189,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -2197,7 +2197,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -2205,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -2213,7 +2213,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -2221,7 +2221,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -2334,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -2350,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -2358,7 +2358,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -2366,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -2374,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -2382,7 +2382,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -2390,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -2398,7 +2398,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -2406,7 +2406,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -2414,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -2430,7 +2430,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -2438,7 +2438,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -2446,7 +2446,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -2454,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -2470,7 +2470,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -2478,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -2486,7 +2486,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -2494,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -2502,7 +2502,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -2510,7 +2510,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -2518,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -2526,7 +2526,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -2534,7 +2534,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -2542,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -2550,7 +2550,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -2558,7 +2558,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -2566,7 +2566,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -2574,7 +2574,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -2582,7 +2582,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -2590,7 +2590,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -2598,7 +2598,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -2606,7 +2606,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -2614,7 +2614,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2719,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -2735,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -2743,7 +2743,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -2751,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -2759,7 +2759,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -2767,7 +2767,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -2775,7 +2775,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -2783,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -2791,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -2807,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2815,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -2823,7 +2823,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -2831,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2839,7 +2839,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -2847,7 +2847,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -2855,7 +2855,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -2871,7 +2871,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -2879,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -2887,7 +2887,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -2895,7 +2895,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -2903,7 +2903,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -2911,7 +2911,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -2919,7 +2919,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -2935,7 +2935,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -2943,7 +2943,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
@@ -2951,7 +2951,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -2959,7 +2959,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -2967,7 +2967,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -2975,7 +2975,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -2991,7 +2991,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -2999,7 +2999,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -3104,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -3120,7 +3120,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -3128,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -3136,7 +3136,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -3144,7 +3144,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -3152,7 +3152,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -3160,7 +3160,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -3168,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -3176,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -3184,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -3192,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -3200,7 +3200,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -3208,7 +3208,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -3216,7 +3216,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -3224,7 +3224,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -3232,7 +3232,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -3240,7 +3240,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -3248,7 +3248,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -3256,7 +3256,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -3264,7 +3264,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -3272,7 +3272,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -3280,7 +3280,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -3288,7 +3288,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -3296,7 +3296,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
@@ -3304,7 +3304,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -3312,7 +3312,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -3320,7 +3320,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -3328,7 +3328,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -3368,7 +3368,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -3376,7 +3376,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -3384,7 +3384,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -3392,7 +3392,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -3489,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -3497,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -3505,7 +3505,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -3513,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -3521,7 +3521,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -3529,7 +3529,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -3537,7 +3537,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -3545,7 +3545,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -3561,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -3569,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -3577,7 +3577,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -3585,7 +3585,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -3593,7 +3593,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -3601,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -3609,7 +3609,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -3617,7 +3617,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -3625,7 +3625,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3633,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -3641,7 +3641,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -3649,7 +3649,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -3657,7 +3657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -3665,7 +3665,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -3673,7 +3673,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -3681,7 +3681,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -3689,7 +3689,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -3713,7 +3713,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -3761,7 +3761,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -3769,7 +3769,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -3777,7 +3777,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -3874,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -3882,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -3898,7 +3898,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -3906,7 +3906,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -3914,7 +3914,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -3922,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -3930,7 +3930,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -3938,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -3946,7 +3946,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -3954,7 +3954,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -3962,7 +3962,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -3970,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -3978,7 +3978,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -3986,7 +3986,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -3994,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -4002,7 +4002,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -4010,7 +4010,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -4018,7 +4018,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -4026,7 +4026,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -4034,7 +4034,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4042,7 +4042,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -4050,7 +4050,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -4090,7 +4090,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -4106,7 +4106,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -4114,7 +4114,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -4146,7 +4146,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -4154,7 +4154,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -4162,7 +4162,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -4259,7 +4259,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -4267,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -4275,7 +4275,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -4283,7 +4283,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -4291,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -4299,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -4307,7 +4307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -4315,7 +4315,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -4323,7 +4323,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -4331,7 +4331,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -4339,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -4347,7 +4347,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -4355,7 +4355,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -4363,7 +4363,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -4371,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -4379,7 +4379,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -4387,7 +4387,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -4395,7 +4395,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -4403,7 +4403,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -4411,7 +4411,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
@@ -4443,7 +4443,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -4451,7 +4451,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -4459,7 +4459,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -4467,7 +4467,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -4475,7 +4475,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -4483,7 +4483,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -4491,7 +4491,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -4499,7 +4499,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -4507,7 +4507,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -4515,7 +4515,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -4523,7 +4523,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -4531,7 +4531,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -4539,7 +4539,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -4547,7 +4547,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -4555,7 +4555,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -4644,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -4652,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -4660,7 +4660,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -4668,7 +4668,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -4676,7 +4676,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -4684,7 +4684,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -4700,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -4732,7 +4732,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -4740,7 +4740,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -4748,7 +4748,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -4756,7 +4756,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -4764,7 +4764,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -5029,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -5037,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -5045,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -5061,7 +5061,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -5069,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -5077,7 +5077,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -5085,7 +5085,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -5093,7 +5093,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -5101,7 +5101,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -5109,7 +5109,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -5117,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -5125,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -5133,7 +5133,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -5141,7 +5141,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -5149,7 +5149,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -5157,7 +5157,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -5181,7 +5181,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -5189,7 +5189,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
@@ -5197,7 +5197,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -5205,7 +5205,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -5213,7 +5213,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -5221,7 +5221,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -5229,7 +5229,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -5237,7 +5237,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -5245,7 +5245,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -5253,7 +5253,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -5261,7 +5261,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -5269,7 +5269,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -5277,7 +5277,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -5285,7 +5285,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -5293,7 +5293,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -5301,7 +5301,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -5309,7 +5309,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -5317,7 +5317,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -5325,7 +5325,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -5333,7 +5333,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
@@ -5341,7 +5341,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
@@ -5357,7 +5357,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -5365,7 +5365,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -5414,7 +5414,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -5422,7 +5422,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -5430,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -5454,7 +5454,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -5478,7 +5478,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -5486,7 +5486,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -5494,7 +5494,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -5502,7 +5502,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -5510,7 +5510,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -5526,7 +5526,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
@@ -5534,7 +5534,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
@@ -5542,7 +5542,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
@@ -5550,7 +5550,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -5799,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -5839,7 +5839,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -5847,7 +5847,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -5855,7 +5855,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -5871,7 +5871,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -5879,7 +5879,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -5887,7 +5887,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -5895,7 +5895,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -5903,7 +5903,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -5911,7 +5911,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
@@ -5919,7 +5919,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -5927,7 +5927,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -5935,7 +5935,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
@@ -5943,7 +5943,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
@@ -5951,7 +5951,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -6184,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -6224,7 +6224,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -6232,7 +6232,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -6240,7 +6240,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -6248,7 +6248,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -6256,7 +6256,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -6264,7 +6264,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -6272,7 +6272,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -6280,7 +6280,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -6288,7 +6288,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -6296,7 +6296,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
@@ -6304,7 +6304,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -6312,7 +6312,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
@@ -6320,7 +6320,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
@@ -6328,7 +6328,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -6336,7 +6336,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -6344,7 +6344,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -6352,7 +6352,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
@@ -6577,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -6585,7 +6585,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -6593,7 +6593,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -6601,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -6609,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -6617,7 +6617,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -6625,7 +6625,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -6633,7 +6633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -6641,7 +6641,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -6649,7 +6649,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -6657,7 +6657,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -6665,7 +6665,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -6673,7 +6673,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -6681,7 +6681,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -6689,7 +6689,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -6697,7 +6697,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -6705,7 +6705,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -6713,7 +6713,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -6721,7 +6721,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -6729,7 +6729,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
@@ -6737,7 +6737,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -6745,7 +6745,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -6753,7 +6753,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -6954,7 +6954,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -6962,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -6970,7 +6970,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -6978,7 +6978,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -6986,7 +6986,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -6994,7 +6994,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -7002,7 +7002,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -7010,7 +7010,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -7018,7 +7018,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -7026,7 +7026,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -7034,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -7042,7 +7042,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -7050,7 +7050,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -7058,7 +7058,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -7066,7 +7066,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -7074,7 +7074,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -7082,7 +7082,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -7090,7 +7090,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -7098,7 +7098,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -7106,7 +7106,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -7114,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -7122,7 +7122,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -7130,7 +7130,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -7138,7 +7138,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -7146,7 +7146,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -7154,7 +7154,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -7339,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -7347,7 +7347,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -7355,7 +7355,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -7363,7 +7363,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -7371,7 +7371,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -7379,7 +7379,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -7387,7 +7387,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -7395,7 +7395,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -7403,7 +7403,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -7411,7 +7411,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -7419,7 +7419,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -7427,7 +7427,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -7435,7 +7435,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -7443,7 +7443,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -7451,7 +7451,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -7459,7 +7459,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -7467,7 +7467,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -7475,7 +7475,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -7483,7 +7483,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -7491,7 +7491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -7499,7 +7499,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -7507,7 +7507,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -7515,7 +7515,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -7523,7 +7523,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -7531,7 +7531,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -7539,7 +7539,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -7547,7 +7547,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -7555,7 +7555,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -7716,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -7724,7 +7724,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -7732,7 +7732,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -7740,7 +7740,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -7748,7 +7748,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -7756,7 +7756,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -7764,7 +7764,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -7772,7 +7772,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -7780,7 +7780,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -7788,7 +7788,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -7796,7 +7796,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -7804,7 +7804,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -7812,7 +7812,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -7820,7 +7820,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -7828,7 +7828,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -7836,7 +7836,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -7844,7 +7844,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -7852,7 +7852,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -7860,7 +7860,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -7868,7 +7868,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -7876,7 +7876,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -7884,7 +7884,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
@@ -7892,7 +7892,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
@@ -7900,7 +7900,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -7908,7 +7908,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -7916,7 +7916,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -7924,7 +7924,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -7932,7 +7932,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -7940,7 +7940,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
@@ -7948,7 +7948,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
@@ -7956,7 +7956,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
